--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3855.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3855.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.37519128975297</v>
+        <v>3.768714904785156</v>
       </c>
       <c r="B1">
-        <v>2.966014091633792</v>
+        <v>6.19842529296875</v>
       </c>
       <c r="C1">
-        <v>4.102068340905625</v>
+        <v>5.481249332427979</v>
       </c>
       <c r="D1">
-        <v>3.000656592868848</v>
+        <v>6.364148616790771</v>
       </c>
       <c r="E1">
-        <v>1.049912484368394</v>
+        <v>3.731287956237793</v>
       </c>
     </row>
   </sheetData>
